--- a/logs/logs_with_phi/Master_Linking_Log.xlsx
+++ b/logs/logs_with_phi/Master_Linking_Log.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1485">
   <si>
     <t>Subject_ID</t>
   </si>
@@ -3134,6 +3134,1344 @@
   </si>
   <si>
     <t>cfz</t>
+  </si>
+  <si>
+    <t>11982217</t>
+  </si>
+  <si>
+    <t>10/26/2015</t>
+  </si>
+  <si>
+    <t>18:52</t>
+  </si>
+  <si>
+    <t>sjm</t>
+  </si>
+  <si>
+    <t>612</t>
+  </si>
+  <si>
+    <t>12503024</t>
+  </si>
+  <si>
+    <t>1/16/2015</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>raf</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>16877007</t>
+  </si>
+  <si>
+    <t>10/19/2012</t>
+  </si>
+  <si>
+    <t>13:59</t>
+  </si>
+  <si>
+    <t>vcr</t>
+  </si>
+  <si>
+    <t>731</t>
+  </si>
+  <si>
+    <t>17451597</t>
+  </si>
+  <si>
+    <t>6/2/2013</t>
+  </si>
+  <si>
+    <t>1:31</t>
+  </si>
+  <si>
+    <t>rhe</t>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>16931885</t>
+  </si>
+  <si>
+    <t>vuo</t>
+  </si>
+  <si>
+    <t>633</t>
+  </si>
+  <si>
+    <t>17475574</t>
+  </si>
+  <si>
+    <t>10/5/2016</t>
+  </si>
+  <si>
+    <t>17:41</t>
+  </si>
+  <si>
+    <t>jvr</t>
+  </si>
+  <si>
+    <t>519</t>
+  </si>
+  <si>
+    <t>19220489</t>
+  </si>
+  <si>
+    <t>12/27/2016</t>
+  </si>
+  <si>
+    <t>11:16</t>
+  </si>
+  <si>
+    <t>mwz</t>
+  </si>
+  <si>
+    <t>866</t>
+  </si>
+  <si>
+    <t>13799125</t>
+  </si>
+  <si>
+    <t>0:54</t>
+  </si>
+  <si>
+    <t>nau</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>14685890</t>
+  </si>
+  <si>
+    <t>3/11/2016</t>
+  </si>
+  <si>
+    <t>21:45</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>ljq</t>
+  </si>
+  <si>
+    <t>559</t>
+  </si>
+  <si>
+    <t>14987095</t>
+  </si>
+  <si>
+    <t>5/9/2016</t>
+  </si>
+  <si>
+    <t>jck</t>
+  </si>
+  <si>
+    <t>692</t>
+  </si>
+  <si>
+    <t>13814183</t>
+  </si>
+  <si>
+    <t>5/14/2016</t>
+  </si>
+  <si>
+    <t>asj</t>
+  </si>
+  <si>
+    <t>544</t>
+  </si>
+  <si>
+    <t>16279275</t>
+  </si>
+  <si>
+    <t>5/26/2012</t>
+  </si>
+  <si>
+    <t>10:20</t>
+  </si>
+  <si>
+    <t>dfz</t>
+  </si>
+  <si>
+    <t>14788674</t>
+  </si>
+  <si>
+    <t>6/1/2013</t>
+  </si>
+  <si>
+    <t>0:22</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>sss</t>
+  </si>
+  <si>
+    <t>717</t>
+  </si>
+  <si>
+    <t>16346075</t>
+  </si>
+  <si>
+    <t>19:2</t>
+  </si>
+  <si>
+    <t>fhq</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>19319048</t>
+  </si>
+  <si>
+    <t>12/3/2016</t>
+  </si>
+  <si>
+    <t>13:27</t>
+  </si>
+  <si>
+    <t>oiy</t>
+  </si>
+  <si>
+    <t>799</t>
+  </si>
+  <si>
+    <t>18968608</t>
+  </si>
+  <si>
+    <t>3/2/2015</t>
+  </si>
+  <si>
+    <t>7:45</t>
+  </si>
+  <si>
+    <t>owo</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>17114302</t>
+  </si>
+  <si>
+    <t>2/8/2016</t>
+  </si>
+  <si>
+    <t>4:34</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>ecu</t>
+  </si>
+  <si>
+    <t>398</t>
+  </si>
+  <si>
+    <t>15173458</t>
+  </si>
+  <si>
+    <t>5/1/2012</t>
+  </si>
+  <si>
+    <t>ofy</t>
+  </si>
+  <si>
+    <t>16007946</t>
+  </si>
+  <si>
+    <t>9/19/2016</t>
+  </si>
+  <si>
+    <t>17:31</t>
+  </si>
+  <si>
+    <t>cnu</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>16196963</t>
+  </si>
+  <si>
+    <t>2/8/2015</t>
+  </si>
+  <si>
+    <t>vgb</t>
+  </si>
+  <si>
+    <t>794</t>
+  </si>
+  <si>
+    <t>19019158</t>
+  </si>
+  <si>
+    <t>10/27/2014</t>
+  </si>
+  <si>
+    <t>0:17</t>
+  </si>
+  <si>
+    <t>hbc</t>
+  </si>
+  <si>
+    <t>534</t>
+  </si>
+  <si>
+    <t>12048604</t>
+  </si>
+  <si>
+    <t>8/21/2013</t>
+  </si>
+  <si>
+    <t>6:13</t>
+  </si>
+  <si>
+    <t>gmq</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>19260589</t>
+  </si>
+  <si>
+    <t>21:57</t>
+  </si>
+  <si>
+    <t>xrq</t>
+  </si>
+  <si>
+    <t>963</t>
+  </si>
+  <si>
+    <t>12415698</t>
+  </si>
+  <si>
+    <t>4/26/2016</t>
+  </si>
+  <si>
+    <t>2:31</t>
+  </si>
+  <si>
+    <t>hbw</t>
+  </si>
+  <si>
+    <t>13559452</t>
+  </si>
+  <si>
+    <t>4/14/2013</t>
+  </si>
+  <si>
+    <t>19:11</t>
+  </si>
+  <si>
+    <t>ojp</t>
+  </si>
+  <si>
+    <t>19073313</t>
+  </si>
+  <si>
+    <t>6/6/2012</t>
+  </si>
+  <si>
+    <t>3:45</t>
+  </si>
+  <si>
+    <t>694</t>
+  </si>
+  <si>
+    <t>13214864</t>
+  </si>
+  <si>
+    <t>9:42</t>
+  </si>
+  <si>
+    <t>yet</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>11205251</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>ugy</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>11415589</t>
+  </si>
+  <si>
+    <t>9/14/2014</t>
+  </si>
+  <si>
+    <t>isu</t>
+  </si>
+  <si>
+    <t>677</t>
+  </si>
+  <si>
+    <t>14911885</t>
+  </si>
+  <si>
+    <t>6/5/2016</t>
+  </si>
+  <si>
+    <t>jtu</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>10252431</t>
+  </si>
+  <si>
+    <t>10/24/2016</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>tjn</t>
+  </si>
+  <si>
+    <t>907</t>
+  </si>
+  <si>
+    <t>12490235</t>
+  </si>
+  <si>
+    <t>12/5/2013</t>
+  </si>
+  <si>
+    <t>4:10</t>
+  </si>
+  <si>
+    <t>rls</t>
+  </si>
+  <si>
+    <t>675</t>
+  </si>
+  <si>
+    <t>18762140</t>
+  </si>
+  <si>
+    <t>11:25</t>
+  </si>
+  <si>
+    <t>hjf</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>17279845</t>
+  </si>
+  <si>
+    <t>4/22/2015</t>
+  </si>
+  <si>
+    <t>14:45</t>
+  </si>
+  <si>
+    <t>gtw</t>
+  </si>
+  <si>
+    <t>461</t>
+  </si>
+  <si>
+    <t>18897553</t>
+  </si>
+  <si>
+    <t>4/12/2012</t>
+  </si>
+  <si>
+    <t>20:4</t>
+  </si>
+  <si>
+    <t>ndh</t>
+  </si>
+  <si>
+    <t>642</t>
+  </si>
+  <si>
+    <t>17542608</t>
+  </si>
+  <si>
+    <t>5/10/2014</t>
+  </si>
+  <si>
+    <t>12:3</t>
+  </si>
+  <si>
+    <t>fyc</t>
+  </si>
+  <si>
+    <t>15225917</t>
+  </si>
+  <si>
+    <t>7/24/2013</t>
+  </si>
+  <si>
+    <t>15:42</t>
+  </si>
+  <si>
+    <t>yqh</t>
+  </si>
+  <si>
+    <t>10218108</t>
+  </si>
+  <si>
+    <t>11/6/2013</t>
+  </si>
+  <si>
+    <t>4:6</t>
+  </si>
+  <si>
+    <t>hje</t>
+  </si>
+  <si>
+    <t>18165705</t>
+  </si>
+  <si>
+    <t>7/12/2013</t>
+  </si>
+  <si>
+    <t>5:36</t>
+  </si>
+  <si>
+    <t>xog</t>
+  </si>
+  <si>
+    <t>14012601</t>
+  </si>
+  <si>
+    <t>9/17/2015</t>
+  </si>
+  <si>
+    <t>22:52</t>
+  </si>
+  <si>
+    <t>bwa</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>10091099</t>
+  </si>
+  <si>
+    <t>10/13/2012</t>
+  </si>
+  <si>
+    <t>0:25</t>
+  </si>
+  <si>
+    <t>nqr</t>
+  </si>
+  <si>
+    <t>10574588</t>
+  </si>
+  <si>
+    <t>7/3/2013</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>lmo</t>
+  </si>
+  <si>
+    <t>652</t>
+  </si>
+  <si>
+    <t>15502706</t>
+  </si>
+  <si>
+    <t>7/11/2014</t>
+  </si>
+  <si>
+    <t>13:37</t>
+  </si>
+  <si>
+    <t>lmb</t>
+  </si>
+  <si>
+    <t>332</t>
+  </si>
+  <si>
+    <t>10231947</t>
+  </si>
+  <si>
+    <t>1/13/2015</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>uhx</t>
+  </si>
+  <si>
+    <t>383</t>
+  </si>
+  <si>
+    <t>14007006</t>
+  </si>
+  <si>
+    <t>12/17/2015</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>qvv</t>
+  </si>
+  <si>
+    <t>17121708</t>
+  </si>
+  <si>
+    <t>8/17/2016</t>
+  </si>
+  <si>
+    <t>16:59</t>
+  </si>
+  <si>
+    <t>fzm</t>
+  </si>
+  <si>
+    <t>13702594</t>
+  </si>
+  <si>
+    <t>12/11/2015</t>
+  </si>
+  <si>
+    <t>19:45</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>14091547</t>
+  </si>
+  <si>
+    <t>7/19/2012</t>
+  </si>
+  <si>
+    <t>5:4</t>
+  </si>
+  <si>
+    <t>mvx</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>10164580</t>
+  </si>
+  <si>
+    <t>1:39</t>
+  </si>
+  <si>
+    <t>ryo</t>
+  </si>
+  <si>
+    <t>708</t>
+  </si>
+  <si>
+    <t>12418973</t>
+  </si>
+  <si>
+    <t>3/14/2014</t>
+  </si>
+  <si>
+    <t>8:13</t>
+  </si>
+  <si>
+    <t>edb</t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>10080258</t>
+  </si>
+  <si>
+    <t>11:42</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>elq</t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
+    <t>14501991</t>
+  </si>
+  <si>
+    <t>11:58</t>
+  </si>
+  <si>
+    <t>zhp</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>12700511</t>
+  </si>
+  <si>
+    <t>6/13/2015</t>
+  </si>
+  <si>
+    <t>lho</t>
+  </si>
+  <si>
+    <t>760</t>
+  </si>
+  <si>
+    <t>19595851</t>
+  </si>
+  <si>
+    <t>3/25/2015</t>
+  </si>
+  <si>
+    <t>14:58</t>
+  </si>
+  <si>
+    <t>llx</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>16724126</t>
+  </si>
+  <si>
+    <t>1/27/2015</t>
+  </si>
+  <si>
+    <t>5:15</t>
+  </si>
+  <si>
+    <t>luj</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>13273728</t>
+  </si>
+  <si>
+    <t>15:32</t>
+  </si>
+  <si>
+    <t>eww</t>
+  </si>
+  <si>
+    <t>365</t>
+  </si>
+  <si>
+    <t>17413639</t>
+  </si>
+  <si>
+    <t>5/12/2013</t>
+  </si>
+  <si>
+    <t>13:16</t>
+  </si>
+  <si>
+    <t>nhq</t>
+  </si>
+  <si>
+    <t>12730080</t>
+  </si>
+  <si>
+    <t>9/3/2012</t>
+  </si>
+  <si>
+    <t>6:38</t>
+  </si>
+  <si>
+    <t>vgq</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>16622200</t>
+  </si>
+  <si>
+    <t>2/25/2013</t>
+  </si>
+  <si>
+    <t>11:33</t>
+  </si>
+  <si>
+    <t>pnp</t>
+  </si>
+  <si>
+    <t>827</t>
+  </si>
+  <si>
+    <t>12938468</t>
+  </si>
+  <si>
+    <t>1/17/2014</t>
+  </si>
+  <si>
+    <t>3:48</t>
+  </si>
+  <si>
+    <t>vla</t>
+  </si>
+  <si>
+    <t>395</t>
+  </si>
+  <si>
+    <t>10242944</t>
+  </si>
+  <si>
+    <t>2/21/2016</t>
+  </si>
+  <si>
+    <t>19:31</t>
+  </si>
+  <si>
+    <t>tra</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>12293737</t>
+  </si>
+  <si>
+    <t>4/24/2016</t>
+  </si>
+  <si>
+    <t>4:29</t>
+  </si>
+  <si>
+    <t>kbm</t>
+  </si>
+  <si>
+    <t>493</t>
+  </si>
+  <si>
+    <t>16697289</t>
+  </si>
+  <si>
+    <t>1/17/2012</t>
+  </si>
+  <si>
+    <t>22:54</t>
+  </si>
+  <si>
+    <t>ffu</t>
+  </si>
+  <si>
+    <t>520</t>
+  </si>
+  <si>
+    <t>12966825</t>
+  </si>
+  <si>
+    <t>2/28/2012</t>
+  </si>
+  <si>
+    <t>17:52</t>
+  </si>
+  <si>
+    <t>ffw</t>
+  </si>
+  <si>
+    <t>359</t>
+  </si>
+  <si>
+    <t>19781827</t>
+  </si>
+  <si>
+    <t>10/20/2012</t>
+  </si>
+  <si>
+    <t>16:12</t>
+  </si>
+  <si>
+    <t>etl</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>18878271</t>
+  </si>
+  <si>
+    <t>7/5/2014</t>
+  </si>
+  <si>
+    <t>21:20</t>
+  </si>
+  <si>
+    <t>ztr</t>
+  </si>
+  <si>
+    <t>464</t>
+  </si>
+  <si>
+    <t>12927929</t>
+  </si>
+  <si>
+    <t>11/12/2013</t>
+  </si>
+  <si>
+    <t>11:14</t>
+  </si>
+  <si>
+    <t>uvk</t>
+  </si>
+  <si>
+    <t>495</t>
+  </si>
+  <si>
+    <t>15175288</t>
+  </si>
+  <si>
+    <t>9/17/2016</t>
+  </si>
+  <si>
+    <t>18:29</t>
+  </si>
+  <si>
+    <t>eix</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>14236337</t>
+  </si>
+  <si>
+    <t>4/7/2016</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>xdd</t>
+  </si>
+  <si>
+    <t>14268518</t>
+  </si>
+  <si>
+    <t>2/1/2013</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>712</t>
+  </si>
+  <si>
+    <t>19756708</t>
+  </si>
+  <si>
+    <t>5/17/2015</t>
+  </si>
+  <si>
+    <t>aqx</t>
+  </si>
+  <si>
+    <t>930</t>
+  </si>
+  <si>
+    <t>18683779</t>
+  </si>
+  <si>
+    <t>21:12</t>
+  </si>
+  <si>
+    <t>gac</t>
+  </si>
+  <si>
+    <t>418</t>
+  </si>
+  <si>
+    <t>14402560</t>
+  </si>
+  <si>
+    <t>8/10/2014</t>
+  </si>
+  <si>
+    <t>4:7</t>
+  </si>
+  <si>
+    <t>kkm</t>
+  </si>
+  <si>
+    <t>18154753</t>
+  </si>
+  <si>
+    <t>8/23/2013</t>
+  </si>
+  <si>
+    <t>11:3</t>
+  </si>
+  <si>
+    <t>vha</t>
+  </si>
+  <si>
+    <t>14657057</t>
+  </si>
+  <si>
+    <t>3/8/2015</t>
+  </si>
+  <si>
+    <t>19:38</t>
+  </si>
+  <si>
+    <t>490</t>
+  </si>
+  <si>
+    <t>12224492</t>
+  </si>
+  <si>
+    <t>9/28/2012</t>
+  </si>
+  <si>
+    <t>11017274</t>
+  </si>
+  <si>
+    <t>2/5/2013</t>
+  </si>
+  <si>
+    <t>17:12</t>
+  </si>
+  <si>
+    <t>hut</t>
+  </si>
+  <si>
+    <t>14727301</t>
+  </si>
+  <si>
+    <t>3/24/2014</t>
+  </si>
+  <si>
+    <t>hwq</t>
+  </si>
+  <si>
+    <t>772</t>
+  </si>
+  <si>
+    <t>14907766</t>
+  </si>
+  <si>
+    <t>4/14/2012</t>
+  </si>
+  <si>
+    <t>2:56</t>
+  </si>
+  <si>
+    <t>jco</t>
+  </si>
+  <si>
+    <t>506</t>
+  </si>
+  <si>
+    <t>15082699</t>
+  </si>
+  <si>
+    <t>11/19/2014</t>
+  </si>
+  <si>
+    <t>8:12</t>
+  </si>
+  <si>
+    <t>pcp</t>
+  </si>
+  <si>
+    <t>940</t>
+  </si>
+  <si>
+    <t>17581715</t>
+  </si>
+  <si>
+    <t>11/9/2016</t>
+  </si>
+  <si>
+    <t>23:57</t>
+  </si>
+  <si>
+    <t>mxr</t>
+  </si>
+  <si>
+    <t>18705404</t>
+  </si>
+  <si>
+    <t>5/11/2015</t>
+  </si>
+  <si>
+    <t>qbl</t>
+  </si>
+  <si>
+    <t>997</t>
+  </si>
+  <si>
+    <t>17359368</t>
+  </si>
+  <si>
+    <t>dbi</t>
+  </si>
+  <si>
+    <t>641</t>
+  </si>
+  <si>
+    <t>12295690</t>
+  </si>
+  <si>
+    <t>12/20/2014</t>
+  </si>
+  <si>
+    <t>jkp</t>
+  </si>
+  <si>
+    <t>11430674</t>
+  </si>
+  <si>
+    <t>10/15/2012</t>
+  </si>
+  <si>
+    <t>19:42</t>
+  </si>
+  <si>
+    <t>fxn</t>
+  </si>
+  <si>
+    <t>14448758</t>
+  </si>
+  <si>
+    <t>7/13/2016</t>
+  </si>
+  <si>
+    <t>2:19</t>
+  </si>
+  <si>
+    <t>yja</t>
+  </si>
+  <si>
+    <t>952</t>
+  </si>
+  <si>
+    <t>17116355</t>
+  </si>
+  <si>
+    <t>12/19/2012</t>
+  </si>
+  <si>
+    <t>3:12</t>
+  </si>
+  <si>
+    <t>phw</t>
+  </si>
+  <si>
+    <t>16349035</t>
+  </si>
+  <si>
+    <t>3/3/2014</t>
+  </si>
+  <si>
+    <t>20:50</t>
+  </si>
+  <si>
+    <t>yto</t>
+  </si>
+  <si>
+    <t>546</t>
+  </si>
+  <si>
+    <t>14871589</t>
+  </si>
+  <si>
+    <t>9/12/2012</t>
+  </si>
+  <si>
+    <t>17:4</t>
+  </si>
+  <si>
+    <t>oft</t>
+  </si>
+  <si>
+    <t>16464343</t>
+  </si>
+  <si>
+    <t>4/16/2016</t>
+  </si>
+  <si>
+    <t>15:39</t>
+  </si>
+  <si>
+    <t>tsb</t>
+  </si>
+  <si>
+    <t>15955985</t>
+  </si>
+  <si>
+    <t>9/5/2016</t>
+  </si>
+  <si>
+    <t>7:29</t>
+  </si>
+  <si>
+    <t>mzy</t>
+  </si>
+  <si>
+    <t>624</t>
+  </si>
+  <si>
+    <t>15911638</t>
+  </si>
+  <si>
+    <t>12/27/2015</t>
+  </si>
+  <si>
+    <t>10:58</t>
+  </si>
+  <si>
+    <t>imc</t>
+  </si>
+  <si>
+    <t>17732096</t>
+  </si>
+  <si>
+    <t>10/21/2015</t>
+  </si>
+  <si>
+    <t>8:42</t>
+  </si>
+  <si>
+    <t>ocg</t>
+  </si>
+  <si>
+    <t>871</t>
+  </si>
+  <si>
+    <t>19819834</t>
+  </si>
+  <si>
+    <t>7/28/2014</t>
+  </si>
+  <si>
+    <t>15:48</t>
+  </si>
+  <si>
+    <t>zkh</t>
+  </si>
+  <si>
+    <t>11004241</t>
+  </si>
+  <si>
+    <t>4/11/2014</t>
+  </si>
+  <si>
+    <t>14:20</t>
+  </si>
+  <si>
+    <t>cjh</t>
+  </si>
+  <si>
+    <t>17348433</t>
+  </si>
+  <si>
+    <t>6/11/2015</t>
+  </si>
+  <si>
+    <t>6:22</t>
+  </si>
+  <si>
+    <t>jxb</t>
+  </si>
+  <si>
+    <t>539</t>
+  </si>
+  <si>
+    <t>19802986</t>
+  </si>
+  <si>
+    <t>2/5/2015</t>
+  </si>
+  <si>
+    <t>11:45</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>mgy</t>
+  </si>
+  <si>
+    <t>707</t>
+  </si>
+  <si>
+    <t>11397695</t>
+  </si>
+  <si>
+    <t>4/28/2012</t>
+  </si>
+  <si>
+    <t>4:56</t>
+  </si>
+  <si>
+    <t>wtz</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>19617564</t>
+  </si>
+  <si>
+    <t>12/14/2012</t>
+  </si>
+  <si>
+    <t>5:43</t>
+  </si>
+  <si>
+    <t>akf</t>
+  </si>
+  <si>
+    <t>14899606</t>
+  </si>
+  <si>
+    <t>5/22/2013</t>
+  </si>
+  <si>
+    <t>23:9</t>
+  </si>
+  <si>
+    <t>weh</t>
   </si>
 </sst>
 </file>
@@ -3500,7 +4838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:H301"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="2:37"/>
@@ -8742,6 +10080,2606 @@
       </c>
       <c r="H201" t="s">
         <v>1038</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" t="s">
+        <v>311</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D202" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E202" t="s">
+        <v>12</v>
+      </c>
+      <c r="F202" t="s">
+        <v>89</v>
+      </c>
+      <c r="G202" t="s">
+        <v>36</v>
+      </c>
+      <c r="H202" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D203" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E203" t="s">
+        <v>28</v>
+      </c>
+      <c r="F203" t="s">
+        <v>758</v>
+      </c>
+      <c r="G203" t="s">
+        <v>36</v>
+      </c>
+      <c r="H203" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C204" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D204" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E204" t="s">
+        <v>28</v>
+      </c>
+      <c r="F204" t="s">
+        <v>406</v>
+      </c>
+      <c r="G204" t="s">
+        <v>14</v>
+      </c>
+      <c r="H204" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D205" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E205" t="s">
+        <v>20</v>
+      </c>
+      <c r="F205" t="s">
+        <v>653</v>
+      </c>
+      <c r="G205" t="s">
+        <v>36</v>
+      </c>
+      <c r="H205" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C206" t="s">
+        <v>704</v>
+      </c>
+      <c r="D206" t="s">
+        <v>281</v>
+      </c>
+      <c r="E206" t="s">
+        <v>12</v>
+      </c>
+      <c r="F206" t="s">
+        <v>214</v>
+      </c>
+      <c r="G206" t="s">
+        <v>22</v>
+      </c>
+      <c r="H206" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C207" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D207" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E207" t="s">
+        <v>12</v>
+      </c>
+      <c r="F207" t="s">
+        <v>60</v>
+      </c>
+      <c r="G207" t="s">
+        <v>36</v>
+      </c>
+      <c r="H207" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C208" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D208" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E208" t="s">
+        <v>76</v>
+      </c>
+      <c r="F208" t="s">
+        <v>427</v>
+      </c>
+      <c r="G208" t="s">
+        <v>14</v>
+      </c>
+      <c r="H208" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C209" t="s">
+        <v>194</v>
+      </c>
+      <c r="D209" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E209" t="s">
+        <v>12</v>
+      </c>
+      <c r="F209" t="s">
+        <v>245</v>
+      </c>
+      <c r="G209" t="s">
+        <v>36</v>
+      </c>
+      <c r="H209" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C210" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D210" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E210" t="s">
+        <v>76</v>
+      </c>
+      <c r="F210" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G210" t="s">
+        <v>22</v>
+      </c>
+      <c r="H210" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C211" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D211" t="s">
+        <v>253</v>
+      </c>
+      <c r="E211" t="s">
+        <v>76</v>
+      </c>
+      <c r="F211" t="s">
+        <v>21</v>
+      </c>
+      <c r="G211" t="s">
+        <v>14</v>
+      </c>
+      <c r="H211" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C212" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D212" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E212" t="s">
+        <v>20</v>
+      </c>
+      <c r="F212" t="s">
+        <v>589</v>
+      </c>
+      <c r="G212" t="s">
+        <v>22</v>
+      </c>
+      <c r="H212" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C213" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D213" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E213" t="s">
+        <v>12</v>
+      </c>
+      <c r="F213" t="s">
+        <v>793</v>
+      </c>
+      <c r="G213" t="s">
+        <v>36</v>
+      </c>
+      <c r="H213" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" t="s">
+        <v>144</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C214" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D214" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E214" t="s">
+        <v>12</v>
+      </c>
+      <c r="F214" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G214" t="s">
+        <v>36</v>
+      </c>
+      <c r="H214" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C215" t="s">
+        <v>497</v>
+      </c>
+      <c r="D215" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E215" t="s">
+        <v>76</v>
+      </c>
+      <c r="F215" t="s">
+        <v>112</v>
+      </c>
+      <c r="G215" t="s">
+        <v>22</v>
+      </c>
+      <c r="H215" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C216" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D216" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E216" t="s">
+        <v>12</v>
+      </c>
+      <c r="F216" t="s">
+        <v>60</v>
+      </c>
+      <c r="G216" t="s">
+        <v>14</v>
+      </c>
+      <c r="H216" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C217" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D217" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E217" t="s">
+        <v>28</v>
+      </c>
+      <c r="F217" t="s">
+        <v>543</v>
+      </c>
+      <c r="G217" t="s">
+        <v>36</v>
+      </c>
+      <c r="H217" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C218" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D218" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E218" t="s">
+        <v>20</v>
+      </c>
+      <c r="F218" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G218" t="s">
+        <v>14</v>
+      </c>
+      <c r="H218" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C219" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D219" t="s">
+        <v>332</v>
+      </c>
+      <c r="E219" t="s">
+        <v>28</v>
+      </c>
+      <c r="F219" t="s">
+        <v>169</v>
+      </c>
+      <c r="G219" t="s">
+        <v>14</v>
+      </c>
+      <c r="H219" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220" t="s">
+        <v>265</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C220" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D220" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E220" t="s">
+        <v>12</v>
+      </c>
+      <c r="F220" t="s">
+        <v>287</v>
+      </c>
+      <c r="G220" t="s">
+        <v>14</v>
+      </c>
+      <c r="H220" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C221" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D221" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E221" t="s">
+        <v>28</v>
+      </c>
+      <c r="F221" t="s">
+        <v>892</v>
+      </c>
+      <c r="G221" t="s">
+        <v>22</v>
+      </c>
+      <c r="H221" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C222" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D222" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E222" t="s">
+        <v>12</v>
+      </c>
+      <c r="F222" t="s">
+        <v>427</v>
+      </c>
+      <c r="G222" t="s">
+        <v>14</v>
+      </c>
+      <c r="H222" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C223" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D223" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E223" t="s">
+        <v>12</v>
+      </c>
+      <c r="F223" t="s">
+        <v>583</v>
+      </c>
+      <c r="G223" t="s">
+        <v>22</v>
+      </c>
+      <c r="H223" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C224" t="s">
+        <v>704</v>
+      </c>
+      <c r="D224" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E224" t="s">
+        <v>20</v>
+      </c>
+      <c r="F224" t="s">
+        <v>287</v>
+      </c>
+      <c r="G224" t="s">
+        <v>36</v>
+      </c>
+      <c r="H224" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B225" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C225" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D225" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E225" t="s">
+        <v>28</v>
+      </c>
+      <c r="F225" t="s">
+        <v>615</v>
+      </c>
+      <c r="G225" t="s">
+        <v>36</v>
+      </c>
+      <c r="H225" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" t="s">
+        <v>361</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C226" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D226" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E226" t="s">
+        <v>12</v>
+      </c>
+      <c r="F226" t="s">
+        <v>163</v>
+      </c>
+      <c r="G226" t="s">
+        <v>22</v>
+      </c>
+      <c r="H226" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227" t="s">
+        <v>323</v>
+      </c>
+      <c r="B227" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C227" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D227" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E227" t="s">
+        <v>28</v>
+      </c>
+      <c r="F227" t="s">
+        <v>260</v>
+      </c>
+      <c r="G227" t="s">
+        <v>22</v>
+      </c>
+      <c r="H227" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C228" t="s">
+        <v>307</v>
+      </c>
+      <c r="D228" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E228" t="s">
+        <v>28</v>
+      </c>
+      <c r="F228" t="s">
+        <v>220</v>
+      </c>
+      <c r="G228" t="s">
+        <v>36</v>
+      </c>
+      <c r="H228" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C229" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D229" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E229" t="s">
+        <v>28</v>
+      </c>
+      <c r="F229" t="s">
+        <v>605</v>
+      </c>
+      <c r="G229" t="s">
+        <v>14</v>
+      </c>
+      <c r="H229" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C230" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D230" t="s">
+        <v>905</v>
+      </c>
+      <c r="E230" t="s">
+        <v>20</v>
+      </c>
+      <c r="F230" t="s">
+        <v>169</v>
+      </c>
+      <c r="G230" t="s">
+        <v>36</v>
+      </c>
+      <c r="H230" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C231" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D231" t="s">
+        <v>701</v>
+      </c>
+      <c r="E231" t="s">
+        <v>20</v>
+      </c>
+      <c r="F231" t="s">
+        <v>793</v>
+      </c>
+      <c r="G231" t="s">
+        <v>36</v>
+      </c>
+      <c r="H231" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C232" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D232" t="s">
+        <v>667</v>
+      </c>
+      <c r="E232" t="s">
+        <v>20</v>
+      </c>
+      <c r="F232" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G232" t="s">
+        <v>14</v>
+      </c>
+      <c r="H232" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C233" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D233" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E233" t="s">
+        <v>20</v>
+      </c>
+      <c r="F233" t="s">
+        <v>327</v>
+      </c>
+      <c r="G233" t="s">
+        <v>36</v>
+      </c>
+      <c r="H233" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C234" t="s">
+        <v>224</v>
+      </c>
+      <c r="D234" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E234" t="s">
+        <v>76</v>
+      </c>
+      <c r="F234" t="s">
+        <v>793</v>
+      </c>
+      <c r="G234" t="s">
+        <v>22</v>
+      </c>
+      <c r="H234" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C235" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D235" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E235" t="s">
+        <v>28</v>
+      </c>
+      <c r="F235" t="s">
+        <v>29</v>
+      </c>
+      <c r="G235" t="s">
+        <v>14</v>
+      </c>
+      <c r="H235" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C236" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D236" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E236" t="s">
+        <v>28</v>
+      </c>
+      <c r="F236" t="s">
+        <v>447</v>
+      </c>
+      <c r="G236" t="s">
+        <v>36</v>
+      </c>
+      <c r="H236" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B237" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C237" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D237" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E237" t="s">
+        <v>12</v>
+      </c>
+      <c r="F237" t="s">
+        <v>136</v>
+      </c>
+      <c r="G237" t="s">
+        <v>22</v>
+      </c>
+      <c r="H237" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C238" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D238" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E238" t="s">
+        <v>28</v>
+      </c>
+      <c r="F238" t="s">
+        <v>245</v>
+      </c>
+      <c r="G238" t="s">
+        <v>36</v>
+      </c>
+      <c r="H238" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239" t="s">
+        <v>402</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C239" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D239" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E239" t="s">
+        <v>28</v>
+      </c>
+      <c r="F239" t="s">
+        <v>653</v>
+      </c>
+      <c r="G239" t="s">
+        <v>22</v>
+      </c>
+      <c r="H239" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240" t="s">
+        <v>466</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C240" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D240" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E240" t="s">
+        <v>12</v>
+      </c>
+      <c r="F240" t="s">
+        <v>220</v>
+      </c>
+      <c r="G240" t="s">
+        <v>36</v>
+      </c>
+      <c r="H240" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241" t="s">
+        <v>267</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C241" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D241" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E241" t="s">
+        <v>12</v>
+      </c>
+      <c r="F241" t="s">
+        <v>458</v>
+      </c>
+      <c r="G241" t="s">
+        <v>36</v>
+      </c>
+      <c r="H241" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C242" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D242" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E242" t="s">
+        <v>76</v>
+      </c>
+      <c r="F242" t="s">
+        <v>808</v>
+      </c>
+      <c r="G242" t="s">
+        <v>14</v>
+      </c>
+      <c r="H242" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243" t="s">
+        <v>641</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C243" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D243" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E243" t="s">
+        <v>12</v>
+      </c>
+      <c r="F243" t="s">
+        <v>185</v>
+      </c>
+      <c r="G243" t="s">
+        <v>22</v>
+      </c>
+      <c r="H243" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C244" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D244" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E244" t="s">
+        <v>20</v>
+      </c>
+      <c r="F244" t="s">
+        <v>304</v>
+      </c>
+      <c r="G244" t="s">
+        <v>22</v>
+      </c>
+      <c r="H244" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C245" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D245" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E245" t="s">
+        <v>28</v>
+      </c>
+      <c r="F245" t="s">
+        <v>826</v>
+      </c>
+      <c r="G245" t="s">
+        <v>22</v>
+      </c>
+      <c r="H245" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B246" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C246" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D246" t="s">
+        <v>936</v>
+      </c>
+      <c r="E246" t="s">
+        <v>12</v>
+      </c>
+      <c r="F246" t="s">
+        <v>1240</v>
+      </c>
+      <c r="G246" t="s">
+        <v>36</v>
+      </c>
+      <c r="H246" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247" t="s">
+        <v>361</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C247" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D247" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E247" t="s">
+        <v>28</v>
+      </c>
+      <c r="F247" t="s">
+        <v>293</v>
+      </c>
+      <c r="G247" t="s">
+        <v>36</v>
+      </c>
+      <c r="H247" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248" t="s">
+        <v>222</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C248" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D248" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E248" t="s">
+        <v>76</v>
+      </c>
+      <c r="F248" t="s">
+        <v>793</v>
+      </c>
+      <c r="G248" t="s">
+        <v>14</v>
+      </c>
+      <c r="H248" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C249" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D249" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E249" t="s">
+        <v>76</v>
+      </c>
+      <c r="F249" t="s">
+        <v>13</v>
+      </c>
+      <c r="G249" t="s">
+        <v>22</v>
+      </c>
+      <c r="H249" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B250" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C250" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D250" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E250" t="s">
+        <v>12</v>
+      </c>
+      <c r="F250" t="s">
+        <v>31</v>
+      </c>
+      <c r="G250" t="s">
+        <v>14</v>
+      </c>
+      <c r="H250" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C251" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D251" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E251" t="s">
+        <v>12</v>
+      </c>
+      <c r="F251" t="s">
+        <v>390</v>
+      </c>
+      <c r="G251" t="s">
+        <v>22</v>
+      </c>
+      <c r="H251" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C252" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D252" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E252" t="s">
+        <v>76</v>
+      </c>
+      <c r="F252" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G252" t="s">
+        <v>36</v>
+      </c>
+      <c r="H252" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C253" t="s">
+        <v>567</v>
+      </c>
+      <c r="D253" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E253" t="s">
+        <v>20</v>
+      </c>
+      <c r="F253" t="s">
+        <v>304</v>
+      </c>
+      <c r="G253" t="s">
+        <v>22</v>
+      </c>
+      <c r="H253" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C254" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D254" t="s">
+        <v>983</v>
+      </c>
+      <c r="E254" t="s">
+        <v>12</v>
+      </c>
+      <c r="F254" t="s">
+        <v>169</v>
+      </c>
+      <c r="G254" t="s">
+        <v>22</v>
+      </c>
+      <c r="H254" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C255" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D255" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E255" t="s">
+        <v>76</v>
+      </c>
+      <c r="F255" t="s">
+        <v>89</v>
+      </c>
+      <c r="G255" t="s">
+        <v>36</v>
+      </c>
+      <c r="H255" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B256" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C256" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D256" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E256" t="s">
+        <v>20</v>
+      </c>
+      <c r="F256" t="s">
+        <v>70</v>
+      </c>
+      <c r="G256" t="s">
+        <v>22</v>
+      </c>
+      <c r="H256" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C257" t="s">
+        <v>110</v>
+      </c>
+      <c r="D257" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E257" t="s">
+        <v>12</v>
+      </c>
+      <c r="F257" t="s">
+        <v>185</v>
+      </c>
+      <c r="G257" t="s">
+        <v>22</v>
+      </c>
+      <c r="H257" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C258" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D258" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E258" t="s">
+        <v>28</v>
+      </c>
+      <c r="F258" t="s">
+        <v>499</v>
+      </c>
+      <c r="G258" t="s">
+        <v>14</v>
+      </c>
+      <c r="H258" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C259" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D259" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E259" t="s">
+        <v>20</v>
+      </c>
+      <c r="F259" t="s">
+        <v>124</v>
+      </c>
+      <c r="G259" t="s">
+        <v>36</v>
+      </c>
+      <c r="H259" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C260" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D260" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E260" t="s">
+        <v>12</v>
+      </c>
+      <c r="F260" t="s">
+        <v>304</v>
+      </c>
+      <c r="G260" t="s">
+        <v>22</v>
+      </c>
+      <c r="H260" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C261" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D261" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E261" t="s">
+        <v>12</v>
+      </c>
+      <c r="F261" t="s">
+        <v>390</v>
+      </c>
+      <c r="G261" t="s">
+        <v>22</v>
+      </c>
+      <c r="H261" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C262" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D262" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E262" t="s">
+        <v>12</v>
+      </c>
+      <c r="F262" t="s">
+        <v>697</v>
+      </c>
+      <c r="G262" t="s">
+        <v>14</v>
+      </c>
+      <c r="H262" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C263" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D263" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E263" t="s">
+        <v>12</v>
+      </c>
+      <c r="F263" t="s">
+        <v>317</v>
+      </c>
+      <c r="G263" t="s">
+        <v>36</v>
+      </c>
+      <c r="H263" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="A264" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C264" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D264" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E264" t="s">
+        <v>20</v>
+      </c>
+      <c r="F264" t="s">
+        <v>937</v>
+      </c>
+      <c r="G264" t="s">
+        <v>36</v>
+      </c>
+      <c r="H264" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C265" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D265" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E265" t="s">
+        <v>28</v>
+      </c>
+      <c r="F265" t="s">
+        <v>793</v>
+      </c>
+      <c r="G265" t="s">
+        <v>36</v>
+      </c>
+      <c r="H265" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C266" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D266" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E266" t="s">
+        <v>12</v>
+      </c>
+      <c r="F266" t="s">
+        <v>304</v>
+      </c>
+      <c r="G266" t="s">
+        <v>14</v>
+      </c>
+      <c r="H266" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C267" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D267" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E267" t="s">
+        <v>28</v>
+      </c>
+      <c r="F267" t="s">
+        <v>605</v>
+      </c>
+      <c r="G267" t="s">
+        <v>36</v>
+      </c>
+      <c r="H267" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C268" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D268" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E268" t="s">
+        <v>28</v>
+      </c>
+      <c r="F268" t="s">
+        <v>333</v>
+      </c>
+      <c r="G268" t="s">
+        <v>14</v>
+      </c>
+      <c r="H268" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C269" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D269" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E269" t="s">
+        <v>76</v>
+      </c>
+      <c r="F269" t="s">
+        <v>615</v>
+      </c>
+      <c r="G269" t="s">
+        <v>36</v>
+      </c>
+      <c r="H269" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="A270" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C270" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D270" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E270" t="s">
+        <v>28</v>
+      </c>
+      <c r="F270" t="s">
+        <v>169</v>
+      </c>
+      <c r="G270" t="s">
+        <v>14</v>
+      </c>
+      <c r="H270" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271" t="s">
+        <v>361</v>
+      </c>
+      <c r="B271" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C271" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D271" t="s">
+        <v>728</v>
+      </c>
+      <c r="E271" t="s">
+        <v>76</v>
+      </c>
+      <c r="F271" t="s">
+        <v>153</v>
+      </c>
+      <c r="G271" t="s">
+        <v>14</v>
+      </c>
+      <c r="H271" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="A272" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C272" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D272" t="s">
+        <v>696</v>
+      </c>
+      <c r="E272" t="s">
+        <v>20</v>
+      </c>
+      <c r="F272" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G272" t="s">
+        <v>22</v>
+      </c>
+      <c r="H272" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="A273" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C273" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D273" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E273" t="s">
+        <v>76</v>
+      </c>
+      <c r="F273" t="s">
+        <v>317</v>
+      </c>
+      <c r="G273" t="s">
+        <v>36</v>
+      </c>
+      <c r="H273" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C274" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D274" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E274" t="s">
+        <v>76</v>
+      </c>
+      <c r="F274" t="s">
+        <v>106</v>
+      </c>
+      <c r="G274" t="s">
+        <v>36</v>
+      </c>
+      <c r="H274" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275" t="s">
+        <v>267</v>
+      </c>
+      <c r="B275" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C275" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D275" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E275" t="s">
+        <v>76</v>
+      </c>
+      <c r="F275" t="s">
+        <v>124</v>
+      </c>
+      <c r="G275" t="s">
+        <v>22</v>
+      </c>
+      <c r="H275" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="A276" t="s">
+        <v>495</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C276" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D276" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E276" t="s">
+        <v>12</v>
+      </c>
+      <c r="F276" t="s">
+        <v>100</v>
+      </c>
+      <c r="G276" t="s">
+        <v>22</v>
+      </c>
+      <c r="H276" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C277" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D277" t="s">
+        <v>909</v>
+      </c>
+      <c r="E277" t="s">
+        <v>12</v>
+      </c>
+      <c r="F277" t="s">
+        <v>892</v>
+      </c>
+      <c r="G277" t="s">
+        <v>36</v>
+      </c>
+      <c r="H277" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278" t="s">
+        <v>543</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C278" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D278" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E278" t="s">
+        <v>20</v>
+      </c>
+      <c r="F278" t="s">
+        <v>421</v>
+      </c>
+      <c r="G278" t="s">
+        <v>36</v>
+      </c>
+      <c r="H278" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C279" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D279" t="s">
+        <v>152</v>
+      </c>
+      <c r="E279" t="s">
+        <v>76</v>
+      </c>
+      <c r="F279" t="s">
+        <v>589</v>
+      </c>
+      <c r="G279" t="s">
+        <v>22</v>
+      </c>
+      <c r="H279" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C280" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D280" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E280" t="s">
+        <v>76</v>
+      </c>
+      <c r="F280" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G280" t="s">
+        <v>22</v>
+      </c>
+      <c r="H280" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C281" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D281" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E281" t="s">
+        <v>20</v>
+      </c>
+      <c r="F281" t="s">
+        <v>293</v>
+      </c>
+      <c r="G281" t="s">
+        <v>36</v>
+      </c>
+      <c r="H281" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="A282" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C282" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D282" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E282" t="s">
+        <v>28</v>
+      </c>
+      <c r="F282" t="s">
+        <v>153</v>
+      </c>
+      <c r="G282" t="s">
+        <v>36</v>
+      </c>
+      <c r="H282" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="A283" t="s">
+        <v>196</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C283" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D283" t="s">
+        <v>918</v>
+      </c>
+      <c r="E283" t="s">
+        <v>12</v>
+      </c>
+      <c r="F283" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G283" t="s">
+        <v>14</v>
+      </c>
+      <c r="H283" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="A284" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B284" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C284" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D284" t="s">
+        <v>634</v>
+      </c>
+      <c r="E284" t="s">
+        <v>20</v>
+      </c>
+      <c r="F284" t="s">
+        <v>793</v>
+      </c>
+      <c r="G284" t="s">
+        <v>22</v>
+      </c>
+      <c r="H284" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="A285" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B285" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C285" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D285" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E285" t="s">
+        <v>28</v>
+      </c>
+      <c r="F285" t="s">
+        <v>163</v>
+      </c>
+      <c r="G285" t="s">
+        <v>22</v>
+      </c>
+      <c r="H285" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="A286" t="s">
+        <v>271</v>
+      </c>
+      <c r="B286" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C286" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D286" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E286" t="s">
+        <v>12</v>
+      </c>
+      <c r="F286" t="s">
+        <v>169</v>
+      </c>
+      <c r="G286" t="s">
+        <v>22</v>
+      </c>
+      <c r="H286" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B287" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C287" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D287" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E287" t="s">
+        <v>76</v>
+      </c>
+      <c r="F287" t="s">
+        <v>243</v>
+      </c>
+      <c r="G287" t="s">
+        <v>14</v>
+      </c>
+      <c r="H287" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="A288" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B288" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C288" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D288" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E288" t="s">
+        <v>20</v>
+      </c>
+      <c r="F288" t="s">
+        <v>13</v>
+      </c>
+      <c r="G288" t="s">
+        <v>22</v>
+      </c>
+      <c r="H288" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="A289" t="s">
+        <v>289</v>
+      </c>
+      <c r="B289" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C289" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D289" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E289" t="s">
+        <v>76</v>
+      </c>
+      <c r="F289" t="s">
+        <v>421</v>
+      </c>
+      <c r="G289" t="s">
+        <v>14</v>
+      </c>
+      <c r="H289" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="A290" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C290" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D290" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E290" t="s">
+        <v>20</v>
+      </c>
+      <c r="F290" t="s">
+        <v>802</v>
+      </c>
+      <c r="G290" t="s">
+        <v>22</v>
+      </c>
+      <c r="H290" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="A291" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B291" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C291" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D291" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E291" t="s">
+        <v>20</v>
+      </c>
+      <c r="F291" t="s">
+        <v>100</v>
+      </c>
+      <c r="G291" t="s">
+        <v>36</v>
+      </c>
+      <c r="H291" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="A292" t="s">
+        <v>973</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C292" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D292" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E292" t="s">
+        <v>28</v>
+      </c>
+      <c r="F292" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G292" t="s">
+        <v>36</v>
+      </c>
+      <c r="H292" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="A293" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C293" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D293" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E293" t="s">
+        <v>28</v>
+      </c>
+      <c r="F293" t="s">
+        <v>317</v>
+      </c>
+      <c r="G293" t="s">
+        <v>22</v>
+      </c>
+      <c r="H293" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="A294" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C294" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D294" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E294" t="s">
+        <v>20</v>
+      </c>
+      <c r="F294" t="s">
+        <v>333</v>
+      </c>
+      <c r="G294" t="s">
+        <v>22</v>
+      </c>
+      <c r="H294" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
+      <c r="A295" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C295" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D295" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E295" t="s">
+        <v>12</v>
+      </c>
+      <c r="F295" t="s">
+        <v>317</v>
+      </c>
+      <c r="G295" t="s">
+        <v>14</v>
+      </c>
+      <c r="H295" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
+      <c r="A296" t="s">
+        <v>622</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C296" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D296" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E296" t="s">
+        <v>28</v>
+      </c>
+      <c r="F296" t="s">
+        <v>77</v>
+      </c>
+      <c r="G296" t="s">
+        <v>14</v>
+      </c>
+      <c r="H296" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
+      <c r="A297" t="s">
+        <v>653</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C297" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D297" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E297" t="s">
+        <v>12</v>
+      </c>
+      <c r="F297" t="s">
+        <v>130</v>
+      </c>
+      <c r="G297" t="s">
+        <v>14</v>
+      </c>
+      <c r="H297" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="A298" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C298" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D298" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E298" t="s">
+        <v>12</v>
+      </c>
+      <c r="F298" t="s">
+        <v>1469</v>
+      </c>
+      <c r="G298" t="s">
+        <v>14</v>
+      </c>
+      <c r="H298" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
+      <c r="A299" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C299" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D299" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E299" t="s">
+        <v>12</v>
+      </c>
+      <c r="F299" t="s">
+        <v>369</v>
+      </c>
+      <c r="G299" t="s">
+        <v>36</v>
+      </c>
+      <c r="H299" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
+      <c r="A300" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D300" t="s">
+        <v>1479</v>
+      </c>
+      <c r="E300" t="s">
+        <v>20</v>
+      </c>
+      <c r="F300" t="s">
+        <v>339</v>
+      </c>
+      <c r="G300" t="s">
+        <v>36</v>
+      </c>
+      <c r="H300" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
+      <c r="A301" t="s">
+        <v>758</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D301" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E301" t="s">
+        <v>76</v>
+      </c>
+      <c r="F301" t="s">
+        <v>226</v>
+      </c>
+      <c r="G301" t="s">
+        <v>22</v>
+      </c>
+      <c r="H301" t="s">
+        <v>1484</v>
       </c>
     </row>
   </sheetData>
